--- a/Document/DPV.FL/Anatoli GateWay's Feature's list.xlsx
+++ b/Document/DPV.FL/Anatoli GateWay's Feature's list.xlsx
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A30" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -773,7 +773,9 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="36" x14ac:dyDescent="0.45">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
       <c r="B4" s="8" t="s">
         <v>64</v>
       </c>
@@ -790,7 +792,7 @@
     </row>
     <row r="5" spans="1:10" ht="36" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>6</v>
@@ -816,7 +818,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>9</v>
@@ -842,7 +844,7 @@
     </row>
     <row r="7" spans="1:10" ht="36" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>67</v>
@@ -868,7 +870,7 @@
     </row>
     <row r="8" spans="1:10" ht="36" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>39</v>
@@ -894,7 +896,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>40</v>
@@ -920,7 +922,7 @@
     </row>
     <row r="10" spans="1:10" ht="36" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>41</v>
@@ -946,7 +948,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>42</v>
@@ -972,7 +974,7 @@
     </row>
     <row r="12" spans="1:10" ht="36" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>43</v>
@@ -998,7 +1000,7 @@
     </row>
     <row r="13" spans="1:10" ht="36" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>44</v>
@@ -1024,7 +1026,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>45</v>
@@ -1049,7 +1051,9 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
       <c r="B15" s="8" t="s">
         <v>60</v>
       </c>
@@ -1074,7 +1078,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>46</v>
@@ -1099,7 +1103,9 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" ht="36" x14ac:dyDescent="0.45">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
       <c r="B17" s="8" t="s">
         <v>49</v>
       </c>
@@ -1124,7 +1130,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>50</v>
@@ -1150,7 +1156,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>51</v>
@@ -1176,7 +1182,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>53</v>
@@ -1201,7 +1207,9 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
       <c r="B21" s="8" t="s">
         <v>55</v>
       </c>
@@ -1225,7 +1233,9 @@
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" ht="36" x14ac:dyDescent="0.45">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
       <c r="B22" s="8" t="s">
         <v>56</v>
       </c>
@@ -1250,7 +1260,7 @@
     </row>
     <row r="23" spans="1:10" ht="36" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>54</v>
@@ -1275,7 +1285,9 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" ht="36" x14ac:dyDescent="0.45">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
       <c r="B24" s="8" t="s">
         <v>57</v>
       </c>
@@ -1299,7 +1311,9 @@
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
       <c r="B25" s="8" t="s">
         <v>57</v>
       </c>
@@ -1324,7 +1338,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>59</v>
@@ -1350,7 +1364,7 @@
     </row>
     <row r="27" spans="1:10" ht="36" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>61</v>
@@ -1376,7 +1390,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>68</v>
@@ -1394,7 +1408,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>58</v>
@@ -1420,7 +1434,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>69</v>
@@ -1438,7 +1452,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>72</v>
@@ -1456,7 +1470,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>42</v>
@@ -1474,7 +1488,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>73</v>
@@ -1492,7 +1506,7 @@
     </row>
     <row r="34" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>62</v>
@@ -1518,7 +1532,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>63</v>
@@ -1544,7 +1558,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1558,7 +1572,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="6"/>
@@ -1572,7 +1586,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="6"/>
@@ -1586,7 +1600,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="6"/>
@@ -1600,7 +1614,7 @@
     </row>
     <row r="40" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="8"/>
@@ -1614,7 +1628,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1628,7 +1642,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="6"/>
@@ -1642,7 +1656,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="6"/>
@@ -1656,7 +1670,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="6"/>
@@ -1670,7 +1684,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="6"/>
